--- a/Code/gamepack/resources/map.xlsx
+++ b/Code/gamepack/resources/map.xlsx
@@ -24,9 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>StartingRoom</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>ExitRoom</t>
+  </si>
+  <si>
+    <t>IguanaRoom</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>SwordRoom</t>
   </si>
 </sst>
 </file>
@@ -344,20 +359,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5"/>
+  <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Code/gamepack/resources/map.xlsx
+++ b/Code/gamepack/resources/map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>SwordRoom</t>
+  </si>
+  <si>
+    <t>CrabRoom</t>
+  </si>
+  <si>
+    <t>CaveRoom</t>
   </si>
 </sst>
 </file>
@@ -359,46 +365,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
